--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/2 Hiron Middle Para Khal/CS of Hiron Middle para khal.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/2 Hiron Middle Para Khal/CS of Hiron Middle para khal.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="845"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="845" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hiron Middle para khal (2)" sheetId="17" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Hiron Middle para khal'!$A$1:$T$172</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Hiron Middle para khal (2)'!$A$1:$AB$47</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1008,6 +1008,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -1059,28 +1077,10 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1089,11 +1089,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1502,11 +1502,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202988160"/>
-        <c:axId val="202990720"/>
+        <c:axId val="252629376"/>
+        <c:axId val="252631680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202988160"/>
+        <c:axId val="252629376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1590,7 +1590,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202990720"/>
+        <c:crossAx val="252631680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1599,7 +1599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202990720"/>
+        <c:axId val="252631680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1683,7 +1683,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202988160"/>
+        <c:crossAx val="252629376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1875,11 +1875,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205601792"/>
-        <c:axId val="205611776"/>
+        <c:axId val="254407808"/>
+        <c:axId val="254409344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205601792"/>
+        <c:axId val="254407808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1925,12 +1925,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205611776"/>
+        <c:crossAx val="254409344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205611776"/>
+        <c:axId val="254409344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1975,7 +1975,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205601792"/>
+        <c:crossAx val="254407808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2137,11 +2137,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205649408"/>
-        <c:axId val="205650944"/>
+        <c:axId val="254516608"/>
+        <c:axId val="254526592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205649408"/>
+        <c:axId val="254516608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2187,12 +2187,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205650944"/>
+        <c:crossAx val="254526592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205650944"/>
+        <c:axId val="254526592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2237,7 +2237,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205649408"/>
+        <c:crossAx val="254516608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2399,11 +2399,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205680640"/>
-        <c:axId val="205682176"/>
+        <c:axId val="254547840"/>
+        <c:axId val="254549376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205680640"/>
+        <c:axId val="254547840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2449,12 +2449,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205682176"/>
+        <c:crossAx val="254549376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205682176"/>
+        <c:axId val="254549376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2499,7 +2499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205680640"/>
+        <c:crossAx val="254547840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2661,11 +2661,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205793536"/>
-        <c:axId val="205803520"/>
+        <c:axId val="254579072"/>
+        <c:axId val="254580608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205793536"/>
+        <c:axId val="254579072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2711,12 +2711,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205803520"/>
+        <c:crossAx val="254580608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205803520"/>
+        <c:axId val="254580608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2761,7 +2761,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205793536"/>
+        <c:crossAx val="254579072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3001,11 +3001,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203554176"/>
-        <c:axId val="203625600"/>
+        <c:axId val="253580800"/>
+        <c:axId val="253582336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203554176"/>
+        <c:axId val="253580800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3051,12 +3051,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203625600"/>
+        <c:crossAx val="253582336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203625600"/>
+        <c:axId val="253582336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3101,7 +3101,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203554176"/>
+        <c:crossAx val="253580800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3329,11 +3329,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203671424"/>
-        <c:axId val="203672960"/>
+        <c:axId val="253620608"/>
+        <c:axId val="253622144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203671424"/>
+        <c:axId val="253620608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3379,12 +3379,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203672960"/>
+        <c:crossAx val="253622144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203672960"/>
+        <c:axId val="253622144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3429,7 +3429,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203671424"/>
+        <c:crossAx val="253620608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3663,11 +3663,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205861248"/>
-        <c:axId val="205862784"/>
+        <c:axId val="253721216"/>
+        <c:axId val="253731200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205861248"/>
+        <c:axId val="253721216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3713,12 +3713,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205862784"/>
+        <c:crossAx val="253731200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205862784"/>
+        <c:axId val="253731200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3763,7 +3763,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205861248"/>
+        <c:crossAx val="253721216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4021,11 +4021,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205335552"/>
-        <c:axId val="205345536"/>
+        <c:axId val="254203392"/>
+        <c:axId val="254204928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205335552"/>
+        <c:axId val="254203392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4071,12 +4071,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205345536"/>
+        <c:crossAx val="254204928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205345536"/>
+        <c:axId val="254204928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4121,7 +4121,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205335552"/>
+        <c:crossAx val="254203392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4355,11 +4355,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205366784"/>
-        <c:axId val="205368320"/>
+        <c:axId val="254222336"/>
+        <c:axId val="254223872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205366784"/>
+        <c:axId val="254222336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4405,12 +4405,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205368320"/>
+        <c:crossAx val="254223872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205368320"/>
+        <c:axId val="254223872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4455,7 +4455,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205366784"/>
+        <c:crossAx val="254222336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4713,11 +4713,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206057472"/>
-        <c:axId val="206059008"/>
+        <c:axId val="254265600"/>
+        <c:axId val="254271488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206057472"/>
+        <c:axId val="254265600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4763,12 +4763,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206059008"/>
+        <c:crossAx val="254271488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206059008"/>
+        <c:axId val="254271488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4813,7 +4813,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206057472"/>
+        <c:crossAx val="254265600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5071,11 +5071,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203485568"/>
-        <c:axId val="203487104"/>
+        <c:axId val="253015936"/>
+        <c:axId val="253017472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203485568"/>
+        <c:axId val="253015936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5121,12 +5121,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203487104"/>
+        <c:crossAx val="253017472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203487104"/>
+        <c:axId val="253017472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5171,7 +5171,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203485568"/>
+        <c:crossAx val="253015936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5405,11 +5405,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203246208"/>
-        <c:axId val="203264384"/>
+        <c:axId val="253063552"/>
+        <c:axId val="253065088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203246208"/>
+        <c:axId val="253063552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5455,12 +5455,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203264384"/>
+        <c:crossAx val="253065088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203264384"/>
+        <c:axId val="253065088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5505,7 +5505,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203246208"/>
+        <c:crossAx val="253063552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5739,11 +5739,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203818112"/>
-        <c:axId val="203819648"/>
+        <c:axId val="253094528"/>
+        <c:axId val="253297024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203818112"/>
+        <c:axId val="253094528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5789,12 +5789,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203819648"/>
+        <c:crossAx val="253297024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203819648"/>
+        <c:axId val="253297024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5839,7 +5839,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203818112"/>
+        <c:crossAx val="253094528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6085,11 +6085,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203863168"/>
-        <c:axId val="203864704"/>
+        <c:axId val="253323904"/>
+        <c:axId val="253333888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203863168"/>
+        <c:axId val="253323904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6135,12 +6135,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203864704"/>
+        <c:crossAx val="253333888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203864704"/>
+        <c:axId val="253333888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6185,7 +6185,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203863168"/>
+        <c:crossAx val="253323904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6437,11 +6437,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205475840"/>
-        <c:axId val="205477376"/>
+        <c:axId val="253359616"/>
+        <c:axId val="253361152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205475840"/>
+        <c:axId val="253359616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6487,12 +6487,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205477376"/>
+        <c:crossAx val="253361152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205477376"/>
+        <c:axId val="253361152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6537,7 +6537,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205475840"/>
+        <c:crossAx val="253359616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6801,11 +6801,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205513088"/>
-        <c:axId val="205514624"/>
+        <c:axId val="253849600"/>
+        <c:axId val="253851136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205513088"/>
+        <c:axId val="253849600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6851,12 +6851,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205514624"/>
+        <c:crossAx val="253851136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205514624"/>
+        <c:axId val="253851136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6901,7 +6901,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205513088"/>
+        <c:crossAx val="253849600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7153,11 +7153,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205412608"/>
-        <c:axId val="205422592"/>
+        <c:axId val="253880576"/>
+        <c:axId val="254345216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205412608"/>
+        <c:axId val="253880576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7203,12 +7203,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205422592"/>
+        <c:crossAx val="254345216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205422592"/>
+        <c:axId val="254345216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7253,7 +7253,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205412608"/>
+        <c:crossAx val="253880576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7505,11 +7505,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205448704"/>
-        <c:axId val="205450240"/>
+        <c:axId val="254375040"/>
+        <c:axId val="254376576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205448704"/>
+        <c:axId val="254375040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7555,12 +7555,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205450240"/>
+        <c:crossAx val="254376576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205450240"/>
+        <c:axId val="254376576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7605,7 +7605,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205448704"/>
+        <c:crossAx val="254375040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7679,7 +7679,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7722,7 +7722,7 @@
         <xdr:cNvPr id="2" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7760,7 +7760,7 @@
         <xdr:cNvPr id="36" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7798,7 +7798,7 @@
         <xdr:cNvPr id="37" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7836,7 +7836,7 @@
         <xdr:cNvPr id="38" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7874,7 +7874,7 @@
         <xdr:cNvPr id="39" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7912,7 +7912,7 @@
         <xdr:cNvPr id="40" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7950,7 +7950,7 @@
         <xdr:cNvPr id="41" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7988,7 +7988,7 @@
         <xdr:cNvPr id="42" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8026,7 +8026,7 @@
         <xdr:cNvPr id="28" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78342806-FB51-4921-BC71-937279D26140}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78342806-FB51-4921-BC71-937279D26140}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8064,7 +8064,7 @@
         <xdr:cNvPr id="29" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9FAED2-5501-42DE-A700-2CC965CA778B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9FAED2-5501-42DE-A700-2CC965CA778B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8102,7 +8102,7 @@
         <xdr:cNvPr id="30" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0795EAFD-D38A-4F17-BF7D-9C48655B3292}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0795EAFD-D38A-4F17-BF7D-9C48655B3292}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8140,7 +8140,7 @@
         <xdr:cNvPr id="31" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACEF1EC9-08AE-4BB8-AF8B-F841A8877271}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACEF1EC9-08AE-4BB8-AF8B-F841A8877271}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8183,7 +8183,7 @@
         <xdr:cNvPr id="5" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8316,7 +8316,7 @@
         <xdr:cNvPr id="6" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8468,7 +8468,7 @@
         <xdr:cNvPr id="7" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8624,7 +8624,7 @@
         <xdr:cNvPr id="2" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8FF7218-DFF7-4357-8330-519C8E2164C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8FF7218-DFF7-4357-8330-519C8E2164C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8662,7 +8662,7 @@
         <xdr:cNvPr id="3" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37AE6D2E-5661-462A-B4C4-0B2DE1EF60C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37AE6D2E-5661-462A-B4C4-0B2DE1EF60C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8700,7 +8700,7 @@
         <xdr:cNvPr id="4" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E780CEE0-AD9C-4FED-9989-52AB769078DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E780CEE0-AD9C-4FED-9989-52AB769078DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8743,7 +8743,7 @@
         <xdr:cNvPr id="2" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5B9975-A85D-46E4-B500-C1CB1A0287C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F5B9975-A85D-46E4-B500-C1CB1A0287C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8781,7 +8781,7 @@
         <xdr:cNvPr id="3" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E05792-92F2-4222-ADCF-CF542C0EC697}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24E05792-92F2-4222-ADCF-CF542C0EC697}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8819,7 +8819,7 @@
         <xdr:cNvPr id="4" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21406F6B-21F4-419D-9B29-E3B1529C0482}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21406F6B-21F4-419D-9B29-E3B1529C0482}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9134,7 +9134,7 @@
   </sheetPr>
   <dimension ref="A1:AM55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
       <selection activeCell="AG39" sqref="AG39"/>
     </sheetView>
   </sheetViews>
@@ -9478,15 +9478,15 @@
       <c r="A1" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
       <c r="I1" s="114"/>
       <c r="J1" s="115"/>
       <c r="K1" s="115"/>
@@ -9755,22 +9755,22 @@
     </row>
     <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="F7" s="152" t="s">
+      <c r="F7" s="158" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="152"/>
-      <c r="H7" s="152"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="152"/>
-      <c r="K7" s="152"/>
-      <c r="L7" s="152"/>
-      <c r="M7" s="152"/>
-      <c r="N7" s="152"/>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="152"/>
-      <c r="S7" s="153"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="158"/>
+      <c r="L7" s="158"/>
+      <c r="M7" s="158"/>
+      <c r="N7" s="158"/>
+      <c r="O7" s="158"/>
+      <c r="P7" s="158"/>
+      <c r="Q7" s="158"/>
+      <c r="R7" s="158"/>
+      <c r="S7" s="159"/>
       <c r="AB7" s="133"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
@@ -9880,77 +9880,77 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="130"/>
-      <c r="R34" s="154" t="s">
+      <c r="R34" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="S34" s="155"/>
-      <c r="T34" s="155"/>
-      <c r="U34" s="155"/>
-      <c r="V34" s="155"/>
-      <c r="W34" s="155"/>
-      <c r="X34" s="155"/>
-      <c r="Y34" s="155"/>
-      <c r="Z34" s="155"/>
-      <c r="AA34" s="155"/>
-      <c r="AB34" s="156"/>
+      <c r="S34" s="161"/>
+      <c r="T34" s="161"/>
+      <c r="U34" s="161"/>
+      <c r="V34" s="161"/>
+      <c r="W34" s="161"/>
+      <c r="X34" s="161"/>
+      <c r="Y34" s="161"/>
+      <c r="Z34" s="161"/>
+      <c r="AA34" s="161"/>
+      <c r="AB34" s="162"/>
     </row>
     <row r="35" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="130"/>
-      <c r="R35" s="157" t="s">
+      <c r="R35" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="S35" s="158"/>
-      <c r="T35" s="158"/>
-      <c r="U35" s="158"/>
-      <c r="V35" s="158"/>
-      <c r="W35" s="158"/>
-      <c r="X35" s="158"/>
-      <c r="Y35" s="158"/>
-      <c r="Z35" s="158"/>
-      <c r="AA35" s="158"/>
-      <c r="AB35" s="159"/>
+      <c r="S35" s="164"/>
+      <c r="T35" s="164"/>
+      <c r="U35" s="164"/>
+      <c r="V35" s="164"/>
+      <c r="W35" s="164"/>
+      <c r="X35" s="164"/>
+      <c r="Y35" s="164"/>
+      <c r="Z35" s="164"/>
+      <c r="AA35" s="164"/>
+      <c r="AB35" s="165"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="130"/>
-      <c r="R36" s="160"/>
-      <c r="S36" s="161"/>
-      <c r="T36" s="161"/>
-      <c r="U36" s="161"/>
-      <c r="V36" s="161"/>
-      <c r="W36" s="161"/>
-      <c r="X36" s="161"/>
-      <c r="Y36" s="161"/>
-      <c r="Z36" s="161"/>
-      <c r="AA36" s="161"/>
-      <c r="AB36" s="162"/>
+      <c r="R36" s="166"/>
+      <c r="S36" s="167"/>
+      <c r="T36" s="167"/>
+      <c r="U36" s="167"/>
+      <c r="V36" s="167"/>
+      <c r="W36" s="167"/>
+      <c r="X36" s="167"/>
+      <c r="Y36" s="167"/>
+      <c r="Z36" s="167"/>
+      <c r="AA36" s="167"/>
+      <c r="AB36" s="168"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="130"/>
-      <c r="R37" s="160"/>
-      <c r="S37" s="161"/>
-      <c r="T37" s="161"/>
-      <c r="U37" s="161"/>
-      <c r="V37" s="161"/>
-      <c r="W37" s="161"/>
-      <c r="X37" s="161"/>
-      <c r="Y37" s="161"/>
-      <c r="Z37" s="161"/>
-      <c r="AA37" s="161"/>
-      <c r="AB37" s="162"/>
+      <c r="R37" s="166"/>
+      <c r="S37" s="167"/>
+      <c r="T37" s="167"/>
+      <c r="U37" s="167"/>
+      <c r="V37" s="167"/>
+      <c r="W37" s="167"/>
+      <c r="X37" s="167"/>
+      <c r="Y37" s="167"/>
+      <c r="Z37" s="167"/>
+      <c r="AA37" s="167"/>
+      <c r="AB37" s="168"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="130"/>
-      <c r="R38" s="163"/>
-      <c r="S38" s="164"/>
-      <c r="T38" s="164"/>
-      <c r="U38" s="164"/>
-      <c r="V38" s="164"/>
-      <c r="W38" s="164"/>
-      <c r="X38" s="164"/>
-      <c r="Y38" s="164"/>
-      <c r="Z38" s="164"/>
-      <c r="AA38" s="164"/>
-      <c r="AB38" s="165"/>
+      <c r="R38" s="169"/>
+      <c r="S38" s="170"/>
+      <c r="T38" s="170"/>
+      <c r="U38" s="170"/>
+      <c r="V38" s="170"/>
+      <c r="W38" s="170"/>
+      <c r="X38" s="170"/>
+      <c r="Y38" s="170"/>
+      <c r="Z38" s="170"/>
+      <c r="AA38" s="170"/>
+      <c r="AB38" s="171"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="130"/>
@@ -10010,84 +10010,84 @@
     </row>
     <row r="43" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="130"/>
-      <c r="R43" s="166" t="s">
+      <c r="R43" s="172" t="s">
         <v>50</v>
       </c>
-      <c r="S43" s="167"/>
-      <c r="T43" s="167"/>
-      <c r="U43" s="168"/>
-      <c r="V43" s="166" t="s">
+      <c r="S43" s="173"/>
+      <c r="T43" s="173"/>
+      <c r="U43" s="174"/>
+      <c r="V43" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="W43" s="167"/>
-      <c r="X43" s="167"/>
-      <c r="Y43" s="168"/>
-      <c r="Z43" s="166" t="s">
+      <c r="W43" s="173"/>
+      <c r="X43" s="173"/>
+      <c r="Y43" s="174"/>
+      <c r="Z43" s="172" t="s">
         <v>58</v>
       </c>
-      <c r="AA43" s="167"/>
-      <c r="AB43" s="168"/>
+      <c r="AA43" s="173"/>
+      <c r="AB43" s="174"/>
     </row>
     <row r="44" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="130"/>
-      <c r="R44" s="169" t="s">
+      <c r="R44" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="S44" s="170"/>
-      <c r="T44" s="170"/>
-      <c r="U44" s="171"/>
-      <c r="V44" s="169" t="s">
+      <c r="S44" s="151"/>
+      <c r="T44" s="151"/>
+      <c r="U44" s="152"/>
+      <c r="V44" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="W44" s="170"/>
-      <c r="X44" s="170"/>
-      <c r="Y44" s="171"/>
-      <c r="Z44" s="169" t="s">
+      <c r="W44" s="151"/>
+      <c r="X44" s="151"/>
+      <c r="Y44" s="152"/>
+      <c r="Z44" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="AA44" s="170"/>
-      <c r="AB44" s="171"/>
+      <c r="AA44" s="151"/>
+      <c r="AB44" s="152"/>
     </row>
     <row r="45" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="130"/>
-      <c r="R45" s="169" t="s">
+      <c r="R45" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="S45" s="170"/>
-      <c r="T45" s="170"/>
-      <c r="U45" s="171"/>
-      <c r="V45" s="169" t="s">
+      <c r="S45" s="151"/>
+      <c r="T45" s="151"/>
+      <c r="U45" s="152"/>
+      <c r="V45" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="W45" s="170"/>
-      <c r="X45" s="170"/>
-      <c r="Y45" s="171"/>
-      <c r="Z45" s="169" t="s">
+      <c r="W45" s="151"/>
+      <c r="X45" s="151"/>
+      <c r="Y45" s="152"/>
+      <c r="Z45" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="AA45" s="170"/>
-      <c r="AB45" s="171"/>
+      <c r="AA45" s="151"/>
+      <c r="AB45" s="152"/>
       <c r="AC45" s="144"/>
     </row>
     <row r="46" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="130"/>
-      <c r="R46" s="169" t="s">
+      <c r="R46" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="S46" s="170"/>
-      <c r="T46" s="170"/>
-      <c r="U46" s="171"/>
-      <c r="V46" s="169" t="s">
+      <c r="S46" s="151"/>
+      <c r="T46" s="151"/>
+      <c r="U46" s="152"/>
+      <c r="V46" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="W46" s="170"/>
-      <c r="X46" s="170"/>
-      <c r="Y46" s="171"/>
-      <c r="Z46" s="169" t="s">
+      <c r="W46" s="151"/>
+      <c r="X46" s="151"/>
+      <c r="Y46" s="152"/>
+      <c r="Z46" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="AA46" s="170"/>
-      <c r="AB46" s="171"/>
+      <c r="AA46" s="151"/>
+      <c r="AB46" s="152"/>
       <c r="AC46" s="144"/>
     </row>
     <row r="47" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10108,23 +10108,23 @@
       <c r="O47" s="147"/>
       <c r="P47" s="147"/>
       <c r="Q47" s="147"/>
-      <c r="R47" s="172" t="s">
+      <c r="R47" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="S47" s="173"/>
-      <c r="T47" s="173"/>
-      <c r="U47" s="174"/>
-      <c r="V47" s="172" t="s">
+      <c r="S47" s="154"/>
+      <c r="T47" s="154"/>
+      <c r="U47" s="155"/>
+      <c r="V47" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="W47" s="173"/>
-      <c r="X47" s="173"/>
-      <c r="Y47" s="174"/>
-      <c r="Z47" s="172" t="s">
+      <c r="W47" s="154"/>
+      <c r="X47" s="154"/>
+      <c r="Y47" s="155"/>
+      <c r="Z47" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="AA47" s="173"/>
-      <c r="AB47" s="174"/>
+      <c r="AA47" s="154"/>
+      <c r="AB47" s="155"/>
       <c r="AC47" s="148"/>
     </row>
     <row r="53" spans="18:28" x14ac:dyDescent="0.2">
@@ -10168,18 +10168,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="R44:U44"/>
-    <mergeCell ref="V44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="R45:U45"/>
-    <mergeCell ref="V45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="F7:S7"/>
     <mergeCell ref="R34:AB34"/>
@@ -10187,6 +10175,18 @@
     <mergeCell ref="R43:U43"/>
     <mergeCell ref="V43:Y43"/>
     <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="R44:U44"/>
+    <mergeCell ref="V44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="R45:U45"/>
+    <mergeCell ref="V45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AB47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
@@ -10204,10 +10204,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:V810"/>
+  <dimension ref="A1:V861"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="98" zoomScaleNormal="86" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection sqref="A1:T1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A192" zoomScale="98" zoomScaleNormal="86" zoomScaleSheetLayoutView="98" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10608,28 +10608,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="180"/>
-      <c r="O1" s="180"/>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="180"/>
-      <c r="R1" s="180"/>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
+      <c r="R1" s="175"/>
+      <c r="S1" s="175"/>
+      <c r="T1" s="175"/>
       <c r="U1" s="63"/>
       <c r="V1" s="63"/>
     </row>
@@ -11415,10 +11415,10 @@
       <c r="E24" s="64"/>
       <c r="F24" s="69"/>
       <c r="G24" s="70"/>
-      <c r="H24" s="179" t="s">
+      <c r="H24" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="179"/>
+      <c r="I24" s="176"/>
       <c r="J24" s="70">
         <f>G23</f>
         <v>20.778999999999996</v>
@@ -12063,10 +12063,10 @@
       <c r="E44" s="64"/>
       <c r="F44" s="69"/>
       <c r="G44" s="70"/>
-      <c r="H44" s="179" t="s">
+      <c r="H44" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="179"/>
+      <c r="I44" s="176"/>
       <c r="J44" s="70">
         <f>G43</f>
         <v>32.097500000000004</v>
@@ -12638,10 +12638,10 @@
       <c r="E60" s="64"/>
       <c r="F60" s="69"/>
       <c r="G60" s="70"/>
-      <c r="H60" s="179" t="s">
+      <c r="H60" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="I60" s="179"/>
+      <c r="I60" s="176"/>
       <c r="J60" s="70">
         <f>G59</f>
         <v>42.842500000000001</v>
@@ -13318,10 +13318,10 @@
       <c r="E80" s="64"/>
       <c r="F80" s="69"/>
       <c r="G80" s="70"/>
-      <c r="H80" s="179" t="s">
+      <c r="H80" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="I80" s="179"/>
+      <c r="I80" s="176"/>
       <c r="J80" s="70">
         <f>G79</f>
         <v>27.064999999999998</v>
@@ -14049,10 +14049,10 @@
       <c r="E101" s="64"/>
       <c r="F101" s="69"/>
       <c r="G101" s="70"/>
-      <c r="H101" s="179" t="s">
+      <c r="H101" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="I101" s="179"/>
+      <c r="I101" s="176"/>
       <c r="J101" s="70">
         <f>G100</f>
         <v>22.214499999999994</v>
@@ -14878,10 +14878,10 @@
       <c r="E125" s="64"/>
       <c r="F125" s="69"/>
       <c r="G125" s="70"/>
-      <c r="H125" s="179" t="s">
+      <c r="H125" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="I125" s="179"/>
+      <c r="I125" s="176"/>
       <c r="J125" s="70">
         <f>G124</f>
         <v>26.774499999999996</v>
@@ -15592,10 +15592,10 @@
       <c r="E145" s="64"/>
       <c r="F145" s="69"/>
       <c r="G145" s="70"/>
-      <c r="H145" s="179" t="s">
+      <c r="H145" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="I145" s="179"/>
+      <c r="I145" s="176"/>
       <c r="J145" s="70">
         <f>G144</f>
         <v>43.738000000000007</v>
@@ -16457,10 +16457,10 @@
       <c r="E170" s="64"/>
       <c r="F170" s="78"/>
       <c r="G170" s="79"/>
-      <c r="H170" s="179" t="s">
+      <c r="H170" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="I170" s="179"/>
+      <c r="I170" s="176"/>
       <c r="J170" s="70">
         <f>G163</f>
         <v>22.801500000000001</v>
@@ -16487,8 +16487,8 @@
       <c r="E171" s="64"/>
       <c r="F171" s="69"/>
       <c r="G171" s="70"/>
-      <c r="H171" s="179"/>
-      <c r="I171" s="179"/>
+      <c r="H171" s="176"/>
+      <c r="I171" s="176"/>
       <c r="J171" s="70"/>
       <c r="K171" s="70"/>
       <c r="L171" s="69"/>
@@ -16504,8 +16504,8 @@
       <c r="E172" s="70"/>
       <c r="F172" s="69"/>
       <c r="G172" s="70"/>
-      <c r="H172" s="179"/>
-      <c r="I172" s="179"/>
+      <c r="H172" s="176"/>
+      <c r="I172" s="176"/>
       <c r="J172" s="70"/>
       <c r="K172" s="70"/>
       <c r="L172" s="69"/>
@@ -16976,8 +16976,8 @@
       <c r="E199" s="64"/>
       <c r="F199" s="69"/>
       <c r="G199" s="70"/>
-      <c r="H199" s="179"/>
-      <c r="I199" s="179"/>
+      <c r="H199" s="176"/>
+      <c r="I199" s="176"/>
       <c r="J199" s="70"/>
       <c r="K199" s="70"/>
       <c r="L199" s="69"/>
@@ -17434,8 +17434,8 @@
       <c r="E225" s="64"/>
       <c r="F225" s="69"/>
       <c r="G225" s="70"/>
-      <c r="H225" s="179"/>
-      <c r="I225" s="179"/>
+      <c r="H225" s="176"/>
+      <c r="I225" s="176"/>
       <c r="J225" s="70"/>
       <c r="K225" s="70"/>
       <c r="L225" s="69"/>
@@ -17911,8 +17911,8 @@
       <c r="E252" s="64"/>
       <c r="F252" s="69"/>
       <c r="G252" s="70"/>
-      <c r="H252" s="179"/>
-      <c r="I252" s="179"/>
+      <c r="H252" s="176"/>
+      <c r="I252" s="176"/>
       <c r="J252" s="69"/>
       <c r="K252" s="70"/>
       <c r="L252" s="69"/>
@@ -18389,8 +18389,8 @@
       <c r="E279" s="64"/>
       <c r="F279" s="69"/>
       <c r="G279" s="70"/>
-      <c r="H279" s="179"/>
-      <c r="I279" s="179"/>
+      <c r="H279" s="176"/>
+      <c r="I279" s="176"/>
       <c r="J279" s="69"/>
       <c r="K279" s="70"/>
       <c r="L279" s="69"/>
@@ -18865,8 +18865,8 @@
       <c r="E306" s="64"/>
       <c r="F306" s="69"/>
       <c r="G306" s="70"/>
-      <c r="H306" s="179"/>
-      <c r="I306" s="179"/>
+      <c r="H306" s="176"/>
+      <c r="I306" s="176"/>
       <c r="J306" s="69"/>
       <c r="K306" s="70"/>
       <c r="L306" s="69"/>
@@ -19325,8 +19325,8 @@
       <c r="E332" s="64"/>
       <c r="F332" s="69"/>
       <c r="G332" s="70"/>
-      <c r="H332" s="179"/>
-      <c r="I332" s="179"/>
+      <c r="H332" s="176"/>
+      <c r="I332" s="176"/>
       <c r="J332" s="69"/>
       <c r="K332" s="70"/>
       <c r="L332" s="69"/>
@@ -19800,8 +19800,8 @@
       <c r="E359" s="64"/>
       <c r="F359" s="69"/>
       <c r="G359" s="70"/>
-      <c r="H359" s="179"/>
-      <c r="I359" s="179"/>
+      <c r="H359" s="176"/>
+      <c r="I359" s="176"/>
       <c r="J359" s="69"/>
       <c r="K359" s="70"/>
       <c r="L359" s="69"/>
@@ -24403,18 +24403,18 @@
       <c r="P627" s="67"/>
     </row>
     <row r="628" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B628" s="176"/>
-      <c r="C628" s="176"/>
-      <c r="D628" s="176"/>
-      <c r="E628" s="176"/>
-      <c r="F628" s="176"/>
-      <c r="G628" s="176"/>
+      <c r="B628" s="180"/>
+      <c r="C628" s="180"/>
+      <c r="D628" s="180"/>
+      <c r="E628" s="180"/>
+      <c r="F628" s="180"/>
+      <c r="G628" s="180"/>
       <c r="H628" s="88"/>
-      <c r="I628" s="176"/>
-      <c r="J628" s="176"/>
-      <c r="K628" s="176"/>
-      <c r="L628" s="176"/>
-      <c r="M628" s="176"/>
+      <c r="I628" s="180"/>
+      <c r="J628" s="180"/>
+      <c r="K628" s="180"/>
+      <c r="L628" s="180"/>
+      <c r="M628" s="180"/>
       <c r="N628" s="68"/>
       <c r="O628" s="68"/>
       <c r="P628" s="72"/>
@@ -24948,8 +24948,8 @@
       <c r="E657" s="102"/>
       <c r="F657" s="98"/>
       <c r="G657" s="98"/>
-      <c r="H657" s="175"/>
-      <c r="I657" s="175"/>
+      <c r="H657" s="179"/>
+      <c r="I657" s="179"/>
       <c r="J657" s="102"/>
       <c r="K657" s="102"/>
       <c r="L657" s="102"/>
@@ -24960,18 +24960,18 @@
       <c r="Q657" s="94"/>
     </row>
     <row r="658" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B658" s="176"/>
-      <c r="C658" s="176"/>
-      <c r="D658" s="176"/>
-      <c r="E658" s="176"/>
-      <c r="F658" s="176"/>
-      <c r="G658" s="176"/>
+      <c r="B658" s="180"/>
+      <c r="C658" s="180"/>
+      <c r="D658" s="180"/>
+      <c r="E658" s="180"/>
+      <c r="F658" s="180"/>
+      <c r="G658" s="180"/>
       <c r="H658" s="88"/>
-      <c r="I658" s="176"/>
-      <c r="J658" s="176"/>
-      <c r="K658" s="176"/>
-      <c r="L658" s="176"/>
-      <c r="M658" s="176"/>
+      <c r="I658" s="180"/>
+      <c r="J658" s="180"/>
+      <c r="K658" s="180"/>
+      <c r="L658" s="180"/>
+      <c r="M658" s="180"/>
       <c r="N658" s="108"/>
       <c r="O658" s="108"/>
       <c r="P658" s="109"/>
@@ -25507,8 +25507,8 @@
       <c r="E687" s="102"/>
       <c r="F687" s="98"/>
       <c r="G687" s="98"/>
-      <c r="H687" s="175"/>
-      <c r="I687" s="175"/>
+      <c r="H687" s="179"/>
+      <c r="I687" s="179"/>
       <c r="J687" s="102"/>
       <c r="K687" s="102"/>
       <c r="L687" s="102"/>
@@ -25519,18 +25519,18 @@
       <c r="Q687" s="94"/>
     </row>
     <row r="688" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B688" s="176"/>
-      <c r="C688" s="176"/>
-      <c r="D688" s="176"/>
-      <c r="E688" s="176"/>
-      <c r="F688" s="176"/>
-      <c r="G688" s="176"/>
+      <c r="B688" s="180"/>
+      <c r="C688" s="180"/>
+      <c r="D688" s="180"/>
+      <c r="E688" s="180"/>
+      <c r="F688" s="180"/>
+      <c r="G688" s="180"/>
       <c r="H688" s="88"/>
-      <c r="I688" s="176"/>
-      <c r="J688" s="176"/>
-      <c r="K688" s="176"/>
-      <c r="L688" s="176"/>
-      <c r="M688" s="176"/>
+      <c r="I688" s="180"/>
+      <c r="J688" s="180"/>
+      <c r="K688" s="180"/>
+      <c r="L688" s="180"/>
+      <c r="M688" s="180"/>
       <c r="N688" s="108"/>
       <c r="O688" s="108"/>
       <c r="P688" s="109"/>
@@ -26067,8 +26067,8 @@
       <c r="E717" s="102"/>
       <c r="F717" s="98"/>
       <c r="G717" s="98"/>
-      <c r="H717" s="175"/>
-      <c r="I717" s="175"/>
+      <c r="H717" s="179"/>
+      <c r="I717" s="179"/>
       <c r="J717" s="102"/>
       <c r="K717" s="102"/>
       <c r="L717" s="102"/>
@@ -26079,18 +26079,18 @@
       <c r="Q717" s="94"/>
     </row>
     <row r="718" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B718" s="176"/>
-      <c r="C718" s="176"/>
-      <c r="D718" s="176"/>
-      <c r="E718" s="176"/>
-      <c r="F718" s="176"/>
-      <c r="G718" s="176"/>
+      <c r="B718" s="180"/>
+      <c r="C718" s="180"/>
+      <c r="D718" s="180"/>
+      <c r="E718" s="180"/>
+      <c r="F718" s="180"/>
+      <c r="G718" s="180"/>
       <c r="H718" s="88"/>
-      <c r="I718" s="176"/>
-      <c r="J718" s="176"/>
-      <c r="K718" s="176"/>
-      <c r="L718" s="176"/>
-      <c r="M718" s="176"/>
+      <c r="I718" s="180"/>
+      <c r="J718" s="180"/>
+      <c r="K718" s="180"/>
+      <c r="L718" s="180"/>
+      <c r="M718" s="180"/>
       <c r="N718" s="108"/>
       <c r="O718" s="108"/>
       <c r="P718" s="109"/>
@@ -26645,8 +26645,8 @@
       <c r="E748" s="102"/>
       <c r="F748" s="98"/>
       <c r="G748" s="98"/>
-      <c r="H748" s="175"/>
-      <c r="I748" s="175"/>
+      <c r="H748" s="179"/>
+      <c r="I748" s="179"/>
       <c r="J748" s="102"/>
       <c r="K748" s="102"/>
       <c r="L748" s="102"/>
@@ -26657,18 +26657,18 @@
       <c r="Q748" s="94"/>
     </row>
     <row r="749" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B749" s="176"/>
-      <c r="C749" s="176"/>
-      <c r="D749" s="176"/>
-      <c r="E749" s="176"/>
-      <c r="F749" s="176"/>
-      <c r="G749" s="176"/>
+      <c r="B749" s="180"/>
+      <c r="C749" s="180"/>
+      <c r="D749" s="180"/>
+      <c r="E749" s="180"/>
+      <c r="F749" s="180"/>
+      <c r="G749" s="180"/>
       <c r="H749" s="88"/>
-      <c r="I749" s="176"/>
-      <c r="J749" s="176"/>
-      <c r="K749" s="176"/>
-      <c r="L749" s="176"/>
-      <c r="M749" s="176"/>
+      <c r="I749" s="180"/>
+      <c r="J749" s="180"/>
+      <c r="K749" s="180"/>
+      <c r="L749" s="180"/>
+      <c r="M749" s="180"/>
       <c r="N749" s="108"/>
       <c r="O749" s="108"/>
       <c r="P749" s="109"/>
@@ -27223,8 +27223,8 @@
       <c r="E779" s="102"/>
       <c r="F779" s="98"/>
       <c r="G779" s="98"/>
-      <c r="H779" s="175"/>
-      <c r="I779" s="175"/>
+      <c r="H779" s="179"/>
+      <c r="I779" s="179"/>
       <c r="J779" s="102"/>
       <c r="K779" s="102"/>
       <c r="L779" s="102"/>
@@ -27235,18 +27235,18 @@
       <c r="Q779" s="94"/>
     </row>
     <row r="780" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B780" s="176"/>
-      <c r="C780" s="176"/>
-      <c r="D780" s="176"/>
-      <c r="E780" s="176"/>
-      <c r="F780" s="176"/>
-      <c r="G780" s="176"/>
+      <c r="B780" s="180"/>
+      <c r="C780" s="180"/>
+      <c r="D780" s="180"/>
+      <c r="E780" s="180"/>
+      <c r="F780" s="180"/>
+      <c r="G780" s="180"/>
       <c r="H780" s="88"/>
-      <c r="I780" s="176"/>
-      <c r="J780" s="176"/>
-      <c r="K780" s="176"/>
-      <c r="L780" s="176"/>
-      <c r="M780" s="176"/>
+      <c r="I780" s="180"/>
+      <c r="J780" s="180"/>
+      <c r="K780" s="180"/>
+      <c r="L780" s="180"/>
+      <c r="M780" s="180"/>
       <c r="N780" s="108"/>
       <c r="O780" s="108"/>
       <c r="P780" s="109"/>
@@ -27812,23 +27812,122 @@
       <c r="P810" s="94"/>
       <c r="Q810" s="94"/>
     </row>
+    <row r="817" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="818" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="819" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="820" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="821" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="822" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="823" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="824" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="825" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="826" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="827" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="828" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="829" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="830" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="831" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="832" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="833" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="834" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="835" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="836" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="837" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="838" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="839" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="840" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="841" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="842" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="843" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="844" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="845" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="846" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="847" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="848" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="849" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="850" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="851" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="852" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="853" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="854" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="855" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="856" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="857" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="858" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="859" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="860" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="861" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="I46:M46"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="H779:I779"/>
+    <mergeCell ref="B780:G780"/>
+    <mergeCell ref="I780:M780"/>
+    <mergeCell ref="H717:I717"/>
+    <mergeCell ref="B718:G718"/>
+    <mergeCell ref="I718:M718"/>
+    <mergeCell ref="H748:I748"/>
+    <mergeCell ref="B749:G749"/>
+    <mergeCell ref="I749:M749"/>
+    <mergeCell ref="H657:I657"/>
+    <mergeCell ref="B658:G658"/>
+    <mergeCell ref="I658:M658"/>
+    <mergeCell ref="H687:I687"/>
+    <mergeCell ref="B688:G688"/>
+    <mergeCell ref="I688:M688"/>
+    <mergeCell ref="H597:I597"/>
+    <mergeCell ref="B598:G598"/>
+    <mergeCell ref="I598:M598"/>
+    <mergeCell ref="H627:I627"/>
+    <mergeCell ref="B628:G628"/>
+    <mergeCell ref="I628:M628"/>
+    <mergeCell ref="H537:I537"/>
+    <mergeCell ref="B538:G538"/>
+    <mergeCell ref="I538:M538"/>
+    <mergeCell ref="H567:I567"/>
+    <mergeCell ref="B568:G568"/>
+    <mergeCell ref="I568:M568"/>
+    <mergeCell ref="H477:I477"/>
+    <mergeCell ref="B478:G478"/>
+    <mergeCell ref="I478:M478"/>
+    <mergeCell ref="H507:I507"/>
+    <mergeCell ref="B508:G508"/>
+    <mergeCell ref="I508:M508"/>
+    <mergeCell ref="B419:G419"/>
+    <mergeCell ref="I419:M419"/>
+    <mergeCell ref="H447:I447"/>
+    <mergeCell ref="B448:G448"/>
+    <mergeCell ref="I448:M448"/>
+    <mergeCell ref="H389:I389"/>
+    <mergeCell ref="B390:G390"/>
+    <mergeCell ref="I390:M390"/>
+    <mergeCell ref="H418:I418"/>
+    <mergeCell ref="B335:G335"/>
+    <mergeCell ref="I335:M335"/>
+    <mergeCell ref="H359:I359"/>
+    <mergeCell ref="H360:I360"/>
+    <mergeCell ref="B361:G361"/>
+    <mergeCell ref="I361:M361"/>
+    <mergeCell ref="H306:I306"/>
+    <mergeCell ref="H307:I307"/>
+    <mergeCell ref="B308:G308"/>
+    <mergeCell ref="I308:M308"/>
+    <mergeCell ref="H254:I254"/>
+    <mergeCell ref="B255:G255"/>
+    <mergeCell ref="I255:M255"/>
+    <mergeCell ref="H279:I279"/>
+    <mergeCell ref="H281:I281"/>
+    <mergeCell ref="B228:G228"/>
+    <mergeCell ref="I228:M228"/>
+    <mergeCell ref="H252:I252"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="I63:M63"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="I147:M147"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="H225:I225"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="H170:I170"/>
     <mergeCell ref="B282:G282"/>
     <mergeCell ref="I282:M282"/>
     <mergeCell ref="H332:I332"/>
@@ -27853,75 +27952,21 @@
     <mergeCell ref="D146:E146"/>
     <mergeCell ref="H174:I174"/>
     <mergeCell ref="I175:M175"/>
-    <mergeCell ref="H254:I254"/>
-    <mergeCell ref="B255:G255"/>
-    <mergeCell ref="I255:M255"/>
-    <mergeCell ref="H279:I279"/>
-    <mergeCell ref="H281:I281"/>
-    <mergeCell ref="B228:G228"/>
-    <mergeCell ref="I228:M228"/>
-    <mergeCell ref="H252:I252"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="I63:M63"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="I147:M147"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="H225:I225"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="B335:G335"/>
-    <mergeCell ref="I335:M335"/>
-    <mergeCell ref="H359:I359"/>
-    <mergeCell ref="H360:I360"/>
-    <mergeCell ref="B361:G361"/>
-    <mergeCell ref="I361:M361"/>
-    <mergeCell ref="H306:I306"/>
-    <mergeCell ref="H307:I307"/>
-    <mergeCell ref="B308:G308"/>
-    <mergeCell ref="I308:M308"/>
-    <mergeCell ref="B419:G419"/>
-    <mergeCell ref="I419:M419"/>
-    <mergeCell ref="H447:I447"/>
-    <mergeCell ref="B448:G448"/>
-    <mergeCell ref="I448:M448"/>
-    <mergeCell ref="H389:I389"/>
-    <mergeCell ref="B390:G390"/>
-    <mergeCell ref="I390:M390"/>
-    <mergeCell ref="H418:I418"/>
-    <mergeCell ref="H537:I537"/>
-    <mergeCell ref="B538:G538"/>
-    <mergeCell ref="I538:M538"/>
-    <mergeCell ref="H567:I567"/>
-    <mergeCell ref="B568:G568"/>
-    <mergeCell ref="I568:M568"/>
-    <mergeCell ref="H477:I477"/>
-    <mergeCell ref="B478:G478"/>
-    <mergeCell ref="I478:M478"/>
-    <mergeCell ref="H507:I507"/>
-    <mergeCell ref="B508:G508"/>
-    <mergeCell ref="I508:M508"/>
-    <mergeCell ref="H657:I657"/>
-    <mergeCell ref="B658:G658"/>
-    <mergeCell ref="I658:M658"/>
-    <mergeCell ref="H687:I687"/>
-    <mergeCell ref="B688:G688"/>
-    <mergeCell ref="I688:M688"/>
-    <mergeCell ref="H597:I597"/>
-    <mergeCell ref="B598:G598"/>
-    <mergeCell ref="I598:M598"/>
-    <mergeCell ref="H627:I627"/>
-    <mergeCell ref="B628:G628"/>
-    <mergeCell ref="I628:M628"/>
-    <mergeCell ref="H779:I779"/>
-    <mergeCell ref="B780:G780"/>
-    <mergeCell ref="I780:M780"/>
-    <mergeCell ref="H717:I717"/>
-    <mergeCell ref="B718:G718"/>
-    <mergeCell ref="I718:M718"/>
-    <mergeCell ref="H748:I748"/>
-    <mergeCell ref="B749:G749"/>
-    <mergeCell ref="I749:M749"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="D62:E62"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
@@ -31952,13 +31997,13 @@
       <c r="K1" s="186"/>
       <c r="L1" s="186"/>
       <c r="M1" s="186"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="153"/>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="153"/>
-      <c r="S1" s="153"/>
-      <c r="T1" s="153"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="159"/>
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="159"/>
       <c r="U1" s="12"/>
       <c r="V1" s="12"/>
     </row>
